--- a/ユニバーサル基板結合テスト20141124.xlsx
+++ b/ユニバーサル基板結合テスト20141124.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
   <si>
     <t>100Ω負荷</t>
     <rPh sb="4" eb="6">
@@ -185,6 +185,13 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(単位はV)</t>
+    <rPh sb="1" eb="3">
+      <t>タンイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -734,9 +741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K95"/>
+  <dimension ref="B2:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2255,6 +2264,11 @@
       <c r="J95" s="9">
         <f>((I80/100)-J92)/(I80/100)</f>
         <v>1.0053112460312309E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
